--- a/natmiOut/YoungD4/LR-pairs_lrc2p/App-Fpr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/App-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H2">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.84251179112794</v>
+        <v>1.109174333333333</v>
       </c>
       <c r="N2">
-        <v>3.84251179112794</v>
+        <v>3.327523</v>
       </c>
       <c r="O2">
-        <v>0.4948967783740351</v>
+        <v>0.06061832081580493</v>
       </c>
       <c r="P2">
-        <v>0.4948967783740351</v>
+        <v>0.06061832081580493</v>
       </c>
       <c r="Q2">
-        <v>484.7926774546705</v>
+        <v>140.7895098025159</v>
       </c>
       <c r="R2">
-        <v>484.7926774546705</v>
+        <v>1267.105588222643</v>
       </c>
       <c r="S2">
-        <v>0.09963195125936422</v>
+        <v>0.01196177602763525</v>
       </c>
       <c r="T2">
-        <v>0.09963195125936422</v>
+        <v>0.01196177602763525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H3">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I3">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J3">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.92175736364888</v>
+        <v>4.402069333333333</v>
       </c>
       <c r="N3">
-        <v>3.92175736364888</v>
+        <v>13.206208</v>
       </c>
       <c r="O3">
-        <v>0.505103221625965</v>
+        <v>0.2405808023879173</v>
       </c>
       <c r="P3">
-        <v>0.505103221625965</v>
+        <v>0.2405808023879173</v>
       </c>
       <c r="Q3">
-        <v>494.7907400156126</v>
+        <v>558.7626443664142</v>
       </c>
       <c r="R3">
-        <v>494.7907400156126</v>
+        <v>5028.863799297727</v>
       </c>
       <c r="S3">
-        <v>0.1016866986350669</v>
+        <v>0.04747366202137891</v>
       </c>
       <c r="T3">
-        <v>0.1016866986350669</v>
+        <v>0.04747366202137893</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.019038018539</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H4">
-        <v>151.019038018539</v>
+        <v>380.795441</v>
       </c>
       <c r="I4">
-        <v>0.2409765964798859</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J4">
-        <v>0.2409765964798859</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.84251179112794</v>
+        <v>12.78643133333333</v>
       </c>
       <c r="N4">
-        <v>3.84251179112794</v>
+        <v>38.359294</v>
       </c>
       <c r="O4">
-        <v>0.4948967783740351</v>
+        <v>0.6988008767962779</v>
       </c>
       <c r="P4">
-        <v>0.4948967783740351</v>
+        <v>0.6988008767962779</v>
       </c>
       <c r="Q4">
-        <v>580.2924342710347</v>
+        <v>1623.004919464295</v>
       </c>
       <c r="R4">
-        <v>580.2924342710347</v>
+        <v>14607.04427517865</v>
       </c>
       <c r="S4">
-        <v>0.1192585412614354</v>
+        <v>0.1378939479625573</v>
       </c>
       <c r="T4">
-        <v>0.1192585412614354</v>
+        <v>0.1378939479625573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H5">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I5">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J5">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.92175736364888</v>
+        <v>1.109174333333333</v>
       </c>
       <c r="N5">
-        <v>3.92175736364888</v>
+        <v>3.327523</v>
       </c>
       <c r="O5">
-        <v>0.505103221625965</v>
+        <v>0.06061832081580493</v>
       </c>
       <c r="P5">
-        <v>0.505103221625965</v>
+        <v>0.06061832081580493</v>
       </c>
       <c r="Q5">
-        <v>592.2600244003754</v>
+        <v>169.0319810558439</v>
       </c>
       <c r="R5">
-        <v>592.2600244003754</v>
+        <v>1521.287829502595</v>
       </c>
       <c r="S5">
-        <v>0.1217180552184505</v>
+        <v>0.01436131642004877</v>
       </c>
       <c r="T5">
-        <v>0.1217180552184505</v>
+        <v>0.01436131642004877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>201.01781154489</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H6">
-        <v>201.01781154489</v>
+        <v>457.183265</v>
       </c>
       <c r="I6">
-        <v>0.3207581553524144</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J6">
-        <v>0.3207581553524144</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.84251179112794</v>
+        <v>4.402069333333333</v>
       </c>
       <c r="N6">
-        <v>3.84251179112794</v>
+        <v>13.206208</v>
       </c>
       <c r="O6">
-        <v>0.4948967783740351</v>
+        <v>0.2405808023879173</v>
       </c>
       <c r="P6">
-        <v>0.4948967783740351</v>
+        <v>0.2405808023879173</v>
       </c>
       <c r="Q6">
-        <v>772.413311087974</v>
+        <v>670.8508101899022</v>
       </c>
       <c r="R6">
-        <v>772.413311087974</v>
+        <v>6037.65729170912</v>
       </c>
       <c r="S6">
-        <v>0.1587421777211082</v>
+        <v>0.05699691085440415</v>
       </c>
       <c r="T6">
-        <v>0.1587421777211082</v>
+        <v>0.05699691085440416</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>201.01781154489</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H7">
-        <v>201.01781154489</v>
+        <v>457.183265</v>
       </c>
       <c r="I7">
-        <v>0.3207581553524144</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J7">
-        <v>0.3207581553524144</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.92175736364888</v>
+        <v>12.78643133333333</v>
       </c>
       <c r="N7">
-        <v>3.92175736364888</v>
+        <v>38.359294</v>
       </c>
       <c r="O7">
-        <v>0.505103221625965</v>
+        <v>0.6988008767962779</v>
       </c>
       <c r="P7">
-        <v>0.505103221625965</v>
+        <v>0.6988008767962779</v>
       </c>
       <c r="Q7">
-        <v>788.3430826507552</v>
+        <v>1948.580808223879</v>
       </c>
       <c r="R7">
-        <v>788.3430826507552</v>
+        <v>17537.22727401491</v>
       </c>
       <c r="S7">
-        <v>0.1620159776313063</v>
+        <v>0.165555567544891</v>
       </c>
       <c r="T7">
-        <v>0.1620159776313063</v>
+        <v>0.165555567544891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>133.020621672466</v>
+        <v>206.573929</v>
       </c>
       <c r="H8">
-        <v>133.020621672466</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I8">
-        <v>0.2122570577382063</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J8">
-        <v>0.2122570577382063</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>3.84251179112794</v>
+        <v>1.109174333333333</v>
       </c>
       <c r="N8">
-        <v>3.84251179112794</v>
+        <v>3.327523</v>
       </c>
       <c r="O8">
-        <v>0.4948967783740351</v>
+        <v>0.06061832081580493</v>
       </c>
       <c r="P8">
-        <v>0.4948967783740351</v>
+        <v>0.06061832081580493</v>
       </c>
       <c r="Q8">
-        <v>511.1333072396195</v>
+        <v>229.1264999826223</v>
       </c>
       <c r="R8">
-        <v>511.1333072396195</v>
+        <v>2062.138499843601</v>
       </c>
       <c r="S8">
-        <v>0.1050453340617899</v>
+        <v>0.01946707449036891</v>
       </c>
       <c r="T8">
-        <v>0.1050453340617899</v>
+        <v>0.01946707449036891</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>133.020621672466</v>
+        <v>206.573929</v>
       </c>
       <c r="H9">
-        <v>133.020621672466</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I9">
-        <v>0.2122570577382063</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J9">
-        <v>0.2122570577382063</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.92175736364888</v>
+        <v>4.402069333333333</v>
       </c>
       <c r="N9">
-        <v>3.92175736364888</v>
+        <v>13.206208</v>
       </c>
       <c r="O9">
-        <v>0.505103221625965</v>
+        <v>0.2405808023879173</v>
       </c>
       <c r="P9">
-        <v>0.505103221625965</v>
+        <v>0.2405808023879173</v>
       </c>
       <c r="Q9">
-        <v>521.6746025611453</v>
+        <v>909.3527579170773</v>
       </c>
       <c r="R9">
-        <v>521.6746025611453</v>
+        <v>8184.174821253696</v>
       </c>
       <c r="S9">
-        <v>0.1072117236764165</v>
+        <v>0.07726054331444314</v>
       </c>
       <c r="T9">
-        <v>0.1072117236764165</v>
+        <v>0.07726054331444314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.4728331098994</v>
+        <v>206.573929</v>
       </c>
       <c r="H10">
-        <v>15.4728331098994</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I10">
-        <v>0.02468954053506238</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J10">
-        <v>0.02468954053506238</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.84251179112794</v>
+        <v>12.78643133333333</v>
       </c>
       <c r="N10">
-        <v>3.84251179112794</v>
+        <v>38.359294</v>
       </c>
       <c r="O10">
-        <v>0.4948967783740351</v>
+        <v>0.6988008767962779</v>
       </c>
       <c r="P10">
-        <v>0.4948967783740351</v>
+        <v>0.6988008767962779</v>
       </c>
       <c r="Q10">
-        <v>59.45454366694324</v>
+        <v>2641.343358415375</v>
       </c>
       <c r="R10">
-        <v>59.45454366694324</v>
+        <v>23772.09022573838</v>
       </c>
       <c r="S10">
-        <v>0.01221877407033752</v>
+        <v>0.224414146407391</v>
       </c>
       <c r="T10">
-        <v>0.01221877407033752</v>
+        <v>0.224414146407391</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>141.7744496666667</v>
+      </c>
+      <c r="H11">
+        <v>425.323349</v>
+      </c>
+      <c r="I11">
+        <v>0.2204038869114384</v>
+      </c>
+      <c r="J11">
+        <v>0.2204038869114385</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.109174333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.327523</v>
+      </c>
+      <c r="O11">
+        <v>0.06061832081580493</v>
+      </c>
+      <c r="P11">
+        <v>0.06061832081580493</v>
+      </c>
+      <c r="Q11">
+        <v>157.2525806927252</v>
+      </c>
+      <c r="R11">
+        <v>1415.273226234527</v>
+      </c>
+      <c r="S11">
+        <v>0.01336051352584797</v>
+      </c>
+      <c r="T11">
+        <v>0.01336051352584797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>15.4728331098994</v>
-      </c>
-      <c r="H11">
-        <v>15.4728331098994</v>
-      </c>
-      <c r="I11">
-        <v>0.02468954053506238</v>
-      </c>
-      <c r="J11">
-        <v>0.02468954053506238</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.92175736364888</v>
-      </c>
-      <c r="N11">
-        <v>3.92175736364888</v>
-      </c>
-      <c r="O11">
-        <v>0.505103221625965</v>
-      </c>
-      <c r="P11">
-        <v>0.505103221625965</v>
-      </c>
-      <c r="Q11">
-        <v>60.68069718525817</v>
-      </c>
-      <c r="R11">
-        <v>60.68069718525817</v>
-      </c>
-      <c r="S11">
-        <v>0.01247076646472486</v>
-      </c>
-      <c r="T11">
-        <v>0.01247076646472486</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>141.7744496666667</v>
+      </c>
+      <c r="H12">
+        <v>425.323349</v>
+      </c>
+      <c r="I12">
+        <v>0.2204038869114384</v>
+      </c>
+      <c r="J12">
+        <v>0.2204038869114385</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.402069333333333</v>
+      </c>
+      <c r="N12">
+        <v>13.206208</v>
+      </c>
+      <c r="O12">
+        <v>0.2405808023879173</v>
+      </c>
+      <c r="P12">
+        <v>0.2405808023879173</v>
+      </c>
+      <c r="Q12">
+        <v>624.1009571278436</v>
+      </c>
+      <c r="R12">
+        <v>5616.908614150592</v>
+      </c>
+      <c r="S12">
+        <v>0.05302494396256964</v>
+      </c>
+      <c r="T12">
+        <v>0.05302494396256965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>141.7744496666667</v>
+      </c>
+      <c r="H13">
+        <v>425.323349</v>
+      </c>
+      <c r="I13">
+        <v>0.2204038869114384</v>
+      </c>
+      <c r="J13">
+        <v>0.2204038869114385</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>12.78643133333333</v>
+      </c>
+      <c r="N13">
+        <v>38.359294</v>
+      </c>
+      <c r="O13">
+        <v>0.6988008767962779</v>
+      </c>
+      <c r="P13">
+        <v>0.6988008767962779</v>
+      </c>
+      <c r="Q13">
+        <v>1812.789265483956</v>
+      </c>
+      <c r="R13">
+        <v>16315.10338935561</v>
+      </c>
+      <c r="S13">
+        <v>0.1540184294230209</v>
+      </c>
+      <c r="T13">
+        <v>0.1540184294230209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>15.57379533333333</v>
+      </c>
+      <c r="H14">
+        <v>46.721386</v>
+      </c>
+      <c r="I14">
+        <v>0.02421116804544314</v>
+      </c>
+      <c r="J14">
+        <v>0.02421116804544315</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.109174333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.327523</v>
+      </c>
+      <c r="O14">
+        <v>0.06061832081580493</v>
+      </c>
+      <c r="P14">
+        <v>0.06061832081580493</v>
+      </c>
+      <c r="Q14">
+        <v>17.27405405631977</v>
+      </c>
+      <c r="R14">
+        <v>155.466486506878</v>
+      </c>
+      <c r="S14">
+        <v>0.001467640351904037</v>
+      </c>
+      <c r="T14">
+        <v>0.001467640351904037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>15.57379533333333</v>
+      </c>
+      <c r="H15">
+        <v>46.721386</v>
+      </c>
+      <c r="I15">
+        <v>0.02421116804544314</v>
+      </c>
+      <c r="J15">
+        <v>0.02421116804544315</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.402069333333333</v>
+      </c>
+      <c r="N15">
+        <v>13.206208</v>
+      </c>
+      <c r="O15">
+        <v>0.2405808023879173</v>
+      </c>
+      <c r="P15">
+        <v>0.2405808023879173</v>
+      </c>
+      <c r="Q15">
+        <v>68.55692684047644</v>
+      </c>
+      <c r="R15">
+        <v>617.0123415642879</v>
+      </c>
+      <c r="S15">
+        <v>0.005824742235121414</v>
+      </c>
+      <c r="T15">
+        <v>0.005824742235121415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>15.57379533333333</v>
+      </c>
+      <c r="H16">
+        <v>46.721386</v>
+      </c>
+      <c r="I16">
+        <v>0.02421116804544314</v>
+      </c>
+      <c r="J16">
+        <v>0.02421116804544315</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.78643133333333</v>
+      </c>
+      <c r="N16">
+        <v>38.359294</v>
+      </c>
+      <c r="O16">
+        <v>0.6988008767962779</v>
+      </c>
+      <c r="P16">
+        <v>0.6988008767962779</v>
+      </c>
+      <c r="Q16">
+        <v>199.1332646290537</v>
+      </c>
+      <c r="R16">
+        <v>1792.199381661484</v>
+      </c>
+      <c r="S16">
+        <v>0.01691878545841769</v>
+      </c>
+      <c r="T16">
+        <v>0.0169187854584177</v>
       </c>
     </row>
   </sheetData>
